--- a/agents/SHUV/SHUV-Data-Contents.xlsx
+++ b/agents/SHUV/SHUV-Data-Contents.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (OIE). Geographical distribution can therefore not be mapped directly from any available reports. </t>
+    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (WOAH). Geographical distribution can therefore not be mapped directly from any available reports. </t>
   </si>
   <si>
     <t xml:space="preserve">sub-title</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">There are no OIE- recommended standard tests for Shuni.</t>
+    <t xml:space="preserve">There are no WOAH- recommended standard tests for Shuni.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -465,7 +465,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -519,7 +519,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/app/uploads/2021/03/oie-african-swine-fever-technical-disease-card.pdf</t>
@@ -528,7 +528,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_asf.pdf</t>
@@ -537,7 +537,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.01_ASF.pdf</t>

--- a/agents/SHUV/SHUV-Data-Contents.xlsx
+++ b/agents/SHUV/SHUV-Data-Contents.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-Shuni.html</t>
+    <t xml:space="preserve">ExperimentalInfections-Shuni.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-Shuni.html</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-Shuni.html</t>

--- a/agents/SHUV/SHUV-Data-Contents.xlsx
+++ b/agents/SHUV/SHUV-Data-Contents.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-Shuni.html</t>
+    <t xml:space="preserve">PathogenSurvival-Shuni.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/SHUV/SHUV-Data-Contents.xlsx
+++ b/agents/SHUV/SHUV-Data-Contents.xlsx
@@ -327,7 +327,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/SHUV/SHUV-Data-Contents.xlsx
+++ b/agents/SHUV/SHUV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\SHUV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\SHUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FECEB84-2383-41D3-A35A-C24D15A1A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99DCC6D-99BC-4A76-92A2-CF58DF9FD9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3680" yWindow="6130" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1141,13 +1141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127:D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>8</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>15</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>15</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>16</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>17</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>21</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>8</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>8</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>9</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>11</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>12</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>13</v>
       </c>
@@ -3297,16 +3297,16 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E127" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>9</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10</v>
       </c>
@@ -3709,9 +3709,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>206</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>209</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>212</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>227</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>230</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>242</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>245</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>248</v>
       </c>
